--- a/biology/Botanique/Fargesia_angustissima/Fargesia_angustissima.xlsx
+++ b/biology/Botanique/Fargesia_angustissima/Fargesia_angustissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fargesia angustissima est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de la province du Sichuan (Chine).
-L'espèce est parfois considérée comme un synonyme de Fargesia ferax (Keng) T. P. Yi[3].
+L'espèce est parfois considérée comme un synonyme de Fargesia ferax (Keng) T. P. Yi.
 Ce sont des bambous vivaces, cespiteux (non-traçants), à rhizomes courts, pachymorphes, dont les chaumes ligneux peuvent atteindre 4 à 5 mètres de haut et 2 cm de diamètre. L'inflorescence est inconnue.
-Les chaumes sont utilisés pour fabriquer des meubles et des outils agricoles. Les pousses sont une source d'alimentation pour les pandas géants[3]. La plante, rustique jusqu'à -12 °C, est cultivée en occident à des fins ornementales.
+Les chaumes sont utilisés pour fabriquer des meubles et des outils agricoles. Les pousses sont une source d'alimentation pour les pandas géants. La plante, rustique jusqu'à -12 °C, est cultivée en occident à des fins ornementales.
 </t>
         </is>
       </c>
